--- a/resources/experiment 2/metrics/R2/average time/Fallo Cardiaco.xlsx
+++ b/resources/experiment 2/metrics/R2/average time/Fallo Cardiaco.xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9094828053874923</v>
+        <v>0.9945325729021466</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9094828053874923</v>
+        <v>0.9945276457813638</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9094828053874923</v>
+        <v>0.988963261755489</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9910172376179675</v>
+        <v>0.9881624143358607</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9910172376179675</v>
+        <v>0.9889261686743417</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9910172376179675</v>
+        <v>0.9712075185729506</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8404171194072502</v>
+        <v>0.9972983235499356</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8404171194072502</v>
+        <v>0.997250406505402</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8404171194072502</v>
+        <v>0.9965031487786785</v>
       </c>
     </row>
   </sheetData>
